--- a/public/templates/Template Unit Cost.xlsx
+++ b/public/templates/Template Unit Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3A707A0-70BB-4879-8E5E-04DF774C7B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3EFBF1-F1F0-4460-B07D-EF9B6A8A6AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{C5B1283E-193A-4024-AAEE-4A1C0610D40B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Kode</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>Kategori  7</t>
+  </si>
+  <si>
+    <t>Testing 8</t>
+  </si>
+  <si>
+    <t>Testing 9</t>
+  </si>
+  <si>
+    <t>TEST005</t>
+  </si>
+  <si>
+    <t>TEST006</t>
+  </si>
+  <si>
+    <t>Kategori  8</t>
+  </si>
+  <si>
+    <t>Kategori  9</t>
   </si>
 </sst>
 </file>
@@ -165,10 +183,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -485,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27BF0EC-1DA7-4BF4-9596-24CF11EA7AD8}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,9 +541,9 @@
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D2" s="3">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="2">
         <v>70500</v>
       </c>
       <c r="E2" t="s">
@@ -541,10 +558,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>70500</v>
+        <v>40000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>72500</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -558,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>70500</v>
+        <v>50000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>74500</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -575,10 +592,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>70500</v>
+        <v>60000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>76500</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -592,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>70500</v>
+        <v>70000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>78500</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -609,10 +626,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>90000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>70500</v>
+        <v>80000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>80500</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -628,15 +645,406 @@
       <c r="C8" s="1">
         <v>90000</v>
       </c>
-      <c r="D8" s="3">
-        <v>70500</v>
+      <c r="D8" s="2">
+        <v>82500</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>84500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>110000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>86500</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
